--- a/downloaded_files/MCNS101_Tutorial-35529.xlsx
+++ b/downloaded_files/MCNS101_Tutorial-35529.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -109,6 +109,15 @@
   </x:si>
   <x:si>
     <x:t>Shahd Nagi Sayed Rashad Sawi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2250002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله نيكسون مصطفى محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdallah Nekson Mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>2240008</x:t>
@@ -305,7 +314,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -605,7 +614,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -615,7 +624,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.750625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="40.010625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -982,7 +991,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1014,7 +1023,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4150680903</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1046,7 +1055,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45908.4150680903</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1078,7 +1087,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1110,7 +1119,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4183939005</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1142,7 +1151,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.0360419329</x:v>
+        <x:v>45908.4183939005</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1174,7 +1183,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4381423611</x:v>
+        <x:v>45912.0360419329</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1206,7 +1215,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4997965278</x:v>
+        <x:v>45909.4381423611</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1238,7 +1247,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6687487269</x:v>
+        <x:v>45908.4997965278</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1255,6 +1264,38 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45907.6687487269</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS101_Tutorial-35529.xlsx
+++ b/downloaded_files/MCNS101_Tutorial-35529.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -57,6 +57,15 @@
     <x:t>احمد محمد عزت عطية</x:t>
   </x:si>
   <x:si>
+    <x:t>4250164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود محمد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mahmoud Mohammed Mohammed</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250165</x:t>
   </x:si>
   <x:si>
@@ -109,6 +118,15 @@
   </x:si>
   <x:si>
     <x:t>Shahd Nagi Sayed Rashad Sawi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله اشرف رأفت حسنين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Ashraf Raafat Hassanein</x:t>
   </x:si>
   <x:si>
     <x:t>2250002</x:t>
@@ -314,7 +332,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -614,7 +632,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -623,7 +641,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.750625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="40.010625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.650625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -799,7 +817,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45917.3081947569</x:v>
+        <x:v>45919.4327795949</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -831,7 +849,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6668241088</x:v>
+        <x:v>45917.3081947569</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -863,7 +881,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45917.3133189005</x:v>
+        <x:v>45907.6668241088</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -895,7 +913,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.665562419</x:v>
+        <x:v>45917.3133189005</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -927,7 +945,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4174532407</x:v>
+        <x:v>45907.665562419</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -959,7 +977,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4153371875</x:v>
+        <x:v>45908.4174532407</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -991,7 +1009,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45918.8002249653</x:v>
+        <x:v>45908.4153371875</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1023,7 +1041,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1055,7 +1073,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4150680903</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1087,7 +1105,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1119,7 +1137,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45908.4150680903</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1151,7 +1169,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4183939005</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1183,7 +1201,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.0360419329</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1215,7 +1233,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4381423611</x:v>
+        <x:v>45908.4183939005</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1247,7 +1265,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4997965278</x:v>
+        <x:v>45912.0360419329</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1279,7 +1297,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6687487269</x:v>
+        <x:v>45909.4381423611</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1296,6 +1314,70 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45908.4997965278</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45907.6687487269</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS101_Tutorial-35529.xlsx
+++ b/downloaded_files/MCNS101_Tutorial-35529.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -54,7 +54,10 @@
     <x:t>1220303</x:t>
   </x:si>
   <x:si>
-    <x:t>احمد محمد عزت عطية</x:t>
+    <x:t>احمد محمد عزت عطيه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Ezzat Attia</x:t>
   </x:si>
   <x:si>
     <x:t>4250164</x:t>
@@ -783,7 +786,9 @@
       <x:c r="C4" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D4" s="2" t="s"/>
+      <x:c r="D4" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E4" s="3">
         <x:v>45912.0360022338</x:v>
       </x:c>
@@ -808,13 +813,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
         <x:v>45919.4327795949</x:v>
@@ -840,13 +845,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
         <x:v>45917.3081947569</x:v>
@@ -872,13 +877,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
         <x:v>45907.6668241088</x:v>
@@ -904,13 +909,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
         <x:v>45917.3133189005</x:v>
@@ -936,13 +941,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
         <x:v>45907.665562419</x:v>
@@ -968,13 +973,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
         <x:v>45908.4174532407</x:v>
@@ -1000,13 +1005,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
         <x:v>45908.4153371875</x:v>
@@ -1032,13 +1037,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
         <x:v>45919.4339732639</x:v>
@@ -1064,13 +1069,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
         <x:v>45918.8002249653</x:v>
@@ -1096,13 +1101,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
         <x:v>45908.4607696759</x:v>
@@ -1128,13 +1133,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
         <x:v>45908.4150680903</x:v>
@@ -1160,13 +1165,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
         <x:v>45907.6652585301</x:v>
@@ -1192,13 +1197,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
         <x:v>45909.492018669</x:v>
@@ -1224,13 +1229,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
         <x:v>45908.4183939005</x:v>
@@ -1256,13 +1261,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
         <x:v>45912.0360419329</x:v>
@@ -1288,13 +1293,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
         <x:v>45909.4381423611</x:v>
@@ -1320,13 +1325,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
         <x:v>45908.4997965278</x:v>
@@ -1352,13 +1357,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
         <x:v>45907.6687487269</x:v>

--- a/downloaded_files/MCNS101_Tutorial-35529.xlsx
+++ b/downloaded_files/MCNS101_Tutorial-35529.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,6 +148,15 @@
   </x:si>
   <x:si>
     <x:t>Ali eldin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240339</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر احمد عبدالمعبود محمد قدرة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar ahmed abdelmaaboud mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1240258</x:t>
@@ -335,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +644,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1142,7 +1151,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4150680903</x:v>
+        <x:v>45927.4921977662</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1174,7 +1183,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45908.4150680903</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1215,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1247,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4183939005</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1279,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.0360419329</x:v>
+        <x:v>45908.4183939005</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1311,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4381423611</x:v>
+        <x:v>45912.0360419329</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1343,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4997965278</x:v>
+        <x:v>45909.4381423611</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1366,7 +1375,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6687487269</x:v>
+        <x:v>45908.4997965278</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1383,6 +1392,38 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45907.6687487269</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS101_Tutorial-35529.xlsx
+++ b/downloaded_files/MCNS101_Tutorial-35529.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -202,6 +202,15 @@
   </x:si>
   <x:si>
     <x:t>Nour eldeen Mostafa Ahmed Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هشام طارق احمد عوض</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hesham Tarek Ahmed Awad</x:t>
   </x:si>
   <x:si>
     <x:t>1230329</x:t>
@@ -344,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -644,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1343,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4381423611</x:v>
+        <x:v>45928.0234021643</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1375,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4997965278</x:v>
+        <x:v>45909.4381423611</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1407,7 +1416,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6687487269</x:v>
+        <x:v>45908.4997965278</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1424,6 +1433,38 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45907.6687487269</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS101_Tutorial-35529.xlsx
+++ b/downloaded_files/MCNS101_Tutorial-35529.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,6 +85,15 @@
   </x:si>
   <x:si>
     <x:t>Islam Amr Ahmed Nassar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>البراء اشرف سيد عبدالموجود حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Albraa Ashraf Sayed Abdelmawgoud Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>4250206</x:t>
@@ -353,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -936,7 +945,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45917.3133189005</x:v>
+        <x:v>45928.4067001505</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -968,7 +977,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.665562419</x:v>
+        <x:v>45917.3133189005</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1000,7 +1009,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4174532407</x:v>
+        <x:v>45907.665562419</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1032,7 +1041,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4153371875</x:v>
+        <x:v>45908.4174532407</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1064,7 +1073,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45919.4339732639</x:v>
+        <x:v>45908.4153371875</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1096,7 +1105,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45918.8002249653</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1128,7 +1137,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1160,7 +1169,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4921977662</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1192,7 +1201,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4150680903</x:v>
+        <x:v>45927.4921977662</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1224,7 +1233,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45908.4150680903</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1256,7 +1265,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1288,7 +1297,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4183939005</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1329,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.0360419329</x:v>
+        <x:v>45908.4183939005</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1361,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45928.0234021643</x:v>
+        <x:v>45912.0360419329</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1393,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4381423611</x:v>
+        <x:v>45928.0234021643</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1425,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4997965278</x:v>
+        <x:v>45909.4381423611</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1448,7 +1457,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6687487269</x:v>
+        <x:v>45908.4997965278</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1465,6 +1474,38 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45907.6687487269</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
